--- a/Visualization Results/Visualization Skrip and Data/Strategic_rollout_v2.xlsx
+++ b/Visualization Results/Visualization Skrip and Data/Strategic_rollout_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Bernecker\IDiNA\Visualization Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Bernecker\IDiNA\Visualization Results\Visualization Skrip and Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024E8F93-95DD-4AA5-B736-FD5A1F7ECA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594A88A-58D1-449A-980A-63FAC110748E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="6">
   <si>
-    <t>Relative Costs</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Strategic</t>
+  </si>
+  <si>
+    <t>Costs in [EUR]</t>
   </si>
 </sst>
 </file>
@@ -504,9 +504,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -555,56 +554,55 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="47">
-    <cellStyle name="20 % - Akzent1 2" xfId="21" xr:uid="{61203841-382D-41A6-9042-3D7B478DB1F3}"/>
-    <cellStyle name="20 % - Akzent2 2" xfId="25" xr:uid="{13B27BE0-C205-4997-B466-81AA785C12A1}"/>
-    <cellStyle name="20 % - Akzent3 2" xfId="29" xr:uid="{3A9013E5-C3B2-4CB2-88D0-D41448AECB82}"/>
-    <cellStyle name="20 % - Akzent4 2" xfId="33" xr:uid="{D2167362-39BC-44B5-A297-079012FB2ED8}"/>
-    <cellStyle name="20 % - Akzent5 2" xfId="37" xr:uid="{CFC6A2E8-D28A-43BF-91FB-CBBEBE3BAEF5}"/>
-    <cellStyle name="20 % - Akzent6 2" xfId="41" xr:uid="{D95B302E-8666-45BF-8BAF-6784882026F6}"/>
-    <cellStyle name="40 % - Akzent1 2" xfId="22" xr:uid="{DCBFF315-C45E-4AA8-B551-7D88E3C0933D}"/>
-    <cellStyle name="40 % - Akzent2 2" xfId="26" xr:uid="{F681DECD-69F6-4812-8157-FDFC5C050E31}"/>
-    <cellStyle name="40 % - Akzent3 2" xfId="30" xr:uid="{02700DCB-52CA-42AE-99F2-5094894EECC4}"/>
-    <cellStyle name="40 % - Akzent4 2" xfId="34" xr:uid="{C06898B9-6970-405B-B669-329667261DCF}"/>
-    <cellStyle name="40 % - Akzent5 2" xfId="38" xr:uid="{A7F47A5F-78B1-4F19-890F-8177678B797E}"/>
-    <cellStyle name="40 % - Akzent6 2" xfId="42" xr:uid="{32D49B9F-EF44-42AD-8490-5B1ABC00E787}"/>
-    <cellStyle name="60 % - Akzent1 2" xfId="23" xr:uid="{49EDEDEE-9A67-4564-A14E-91B7CFD3F9B2}"/>
-    <cellStyle name="60 % - Akzent2 2" xfId="27" xr:uid="{C23273BF-3E4B-46E8-87C7-6AC3EF7DEACB}"/>
-    <cellStyle name="60 % - Akzent3 2" xfId="31" xr:uid="{703BEA35-5101-4613-9C27-4604903AFEC2}"/>
-    <cellStyle name="60 % - Akzent4 2" xfId="35" xr:uid="{38324DFE-650E-4C50-810C-97F19D6C5AA7}"/>
-    <cellStyle name="60 % - Akzent5 2" xfId="39" xr:uid="{D830ABFE-98AB-4C17-AD87-50D415E788F7}"/>
-    <cellStyle name="60 % - Akzent6 2" xfId="43" xr:uid="{D2877036-19EC-41E5-B315-D9AB8B915A60}"/>
-    <cellStyle name="Akzent1 2" xfId="20" xr:uid="{38055A2F-A9A2-4BD9-A501-0FE60E3FDDB1}"/>
-    <cellStyle name="Akzent2 2" xfId="24" xr:uid="{320497EC-4AF6-411D-BB20-52FD16D93331}"/>
-    <cellStyle name="Akzent3 2" xfId="28" xr:uid="{BC43F003-DE34-4065-AADC-FCC09D1BCCF5}"/>
-    <cellStyle name="Akzent4 2" xfId="32" xr:uid="{E61AFA16-5EAF-42B8-8190-8B43396A7BFF}"/>
-    <cellStyle name="Akzent5 2" xfId="36" xr:uid="{2A5F03C3-D438-4415-BF47-5AC97B65082E}"/>
-    <cellStyle name="Akzent6 2" xfId="40" xr:uid="{69479AE6-FAC5-4E13-B5A6-8D4DED2CADE0}"/>
-    <cellStyle name="Ausgabe 2" xfId="12" xr:uid="{004DB3A5-906E-4B8F-965C-852A449833A2}"/>
-    <cellStyle name="Berechnung 2" xfId="13" xr:uid="{05FC85DA-67F7-4F80-9D8B-874D77C80FC4}"/>
-    <cellStyle name="Eingabe 2" xfId="11" xr:uid="{C583B92D-915C-4151-83F3-73635832C53F}"/>
-    <cellStyle name="Ergebnis 2" xfId="19" xr:uid="{C99FF567-846D-4AE0-9D61-701F9464A8AC}"/>
-    <cellStyle name="Erklärender Text 2" xfId="18" xr:uid="{DDFA3E5A-39E7-4D12-ADC5-01DDAA994A7F}"/>
-    <cellStyle name="Gut 2" xfId="8" xr:uid="{3236ECBC-961C-4F6E-93BF-0639D91566FC}"/>
-    <cellStyle name="Komma 2" xfId="44" xr:uid="{5CCC2401-A011-4770-AA47-7829791B9FCC}"/>
-    <cellStyle name="Neutral 2" xfId="10" xr:uid="{C2998F4C-CD06-48F0-A60C-8A9977489D76}"/>
-    <cellStyle name="Notiz 2" xfId="17" xr:uid="{20F375FF-4E13-4B05-92B2-C04D33C3F263}"/>
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Prozent 2" xfId="45" xr:uid="{06709203-B190-4312-8418-22F10A4A1887}"/>
-    <cellStyle name="Schlecht 2" xfId="9" xr:uid="{2E8BC79C-FBA3-4C66-BE7D-BAA0EF72C539}"/>
+  <cellStyles count="46">
+    <cellStyle name="20 % - Akzent1 2" xfId="20" xr:uid="{61203841-382D-41A6-9042-3D7B478DB1F3}"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="24" xr:uid="{13B27BE0-C205-4997-B466-81AA785C12A1}"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="28" xr:uid="{3A9013E5-C3B2-4CB2-88D0-D41448AECB82}"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="32" xr:uid="{D2167362-39BC-44B5-A297-079012FB2ED8}"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="36" xr:uid="{CFC6A2E8-D28A-43BF-91FB-CBBEBE3BAEF5}"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="40" xr:uid="{D95B302E-8666-45BF-8BAF-6784882026F6}"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="21" xr:uid="{DCBFF315-C45E-4AA8-B551-7D88E3C0933D}"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="25" xr:uid="{F681DECD-69F6-4812-8157-FDFC5C050E31}"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="29" xr:uid="{02700DCB-52CA-42AE-99F2-5094894EECC4}"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="33" xr:uid="{C06898B9-6970-405B-B669-329667261DCF}"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="37" xr:uid="{A7F47A5F-78B1-4F19-890F-8177678B797E}"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="41" xr:uid="{32D49B9F-EF44-42AD-8490-5B1ABC00E787}"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="22" xr:uid="{49EDEDEE-9A67-4564-A14E-91B7CFD3F9B2}"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="26" xr:uid="{C23273BF-3E4B-46E8-87C7-6AC3EF7DEACB}"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="30" xr:uid="{703BEA35-5101-4613-9C27-4604903AFEC2}"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="34" xr:uid="{38324DFE-650E-4C50-810C-97F19D6C5AA7}"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="38" xr:uid="{D830ABFE-98AB-4C17-AD87-50D415E788F7}"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="42" xr:uid="{D2877036-19EC-41E5-B315-D9AB8B915A60}"/>
+    <cellStyle name="Akzent1 2" xfId="19" xr:uid="{38055A2F-A9A2-4BD9-A501-0FE60E3FDDB1}"/>
+    <cellStyle name="Akzent2 2" xfId="23" xr:uid="{320497EC-4AF6-411D-BB20-52FD16D93331}"/>
+    <cellStyle name="Akzent3 2" xfId="27" xr:uid="{BC43F003-DE34-4065-AADC-FCC09D1BCCF5}"/>
+    <cellStyle name="Akzent4 2" xfId="31" xr:uid="{E61AFA16-5EAF-42B8-8190-8B43396A7BFF}"/>
+    <cellStyle name="Akzent5 2" xfId="35" xr:uid="{2A5F03C3-D438-4415-BF47-5AC97B65082E}"/>
+    <cellStyle name="Akzent6 2" xfId="39" xr:uid="{69479AE6-FAC5-4E13-B5A6-8D4DED2CADE0}"/>
+    <cellStyle name="Ausgabe 2" xfId="11" xr:uid="{004DB3A5-906E-4B8F-965C-852A449833A2}"/>
+    <cellStyle name="Berechnung 2" xfId="12" xr:uid="{05FC85DA-67F7-4F80-9D8B-874D77C80FC4}"/>
+    <cellStyle name="Eingabe 2" xfId="10" xr:uid="{C583B92D-915C-4151-83F3-73635832C53F}"/>
+    <cellStyle name="Ergebnis 2" xfId="18" xr:uid="{C99FF567-846D-4AE0-9D61-701F9464A8AC}"/>
+    <cellStyle name="Erklärender Text 2" xfId="17" xr:uid="{DDFA3E5A-39E7-4D12-ADC5-01DDAA994A7F}"/>
+    <cellStyle name="Gut 2" xfId="7" xr:uid="{3236ECBC-961C-4F6E-93BF-0639D91566FC}"/>
+    <cellStyle name="Komma 2" xfId="43" xr:uid="{5CCC2401-A011-4770-AA47-7829791B9FCC}"/>
+    <cellStyle name="Neutral 2" xfId="9" xr:uid="{C2998F4C-CD06-48F0-A60C-8A9977489D76}"/>
+    <cellStyle name="Notiz 2" xfId="16" xr:uid="{20F375FF-4E13-4B05-92B2-C04D33C3F263}"/>
+    <cellStyle name="Prozent 2" xfId="44" xr:uid="{06709203-B190-4312-8418-22F10A4A1887}"/>
+    <cellStyle name="Schlecht 2" xfId="8" xr:uid="{2E8BC79C-FBA3-4C66-BE7D-BAA0EF72C539}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="46" xr:uid="{B3C17365-DB92-4C1A-8B94-DF38B72CC3AD}"/>
-    <cellStyle name="Standard 3" xfId="6" xr:uid="{3FABEBDD-13D9-413D-B468-8477555506C7}"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Überschrift 5" xfId="7" xr:uid="{1EC5654B-79C1-46B3-BE39-3B560021440E}"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="14" xr:uid="{FD27F874-29CD-44F1-9885-FC85F35E6F14}"/>
-    <cellStyle name="Warnender Text 2" xfId="16" xr:uid="{A7E494D2-EF1B-459D-B95B-02F4B29BAA67}"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="15" xr:uid="{67C5166D-EC60-4FED-8543-C3202606A7DD}"/>
+    <cellStyle name="Standard 2" xfId="45" xr:uid="{B3C17365-DB92-4C1A-8B94-DF38B72CC3AD}"/>
+    <cellStyle name="Standard 3" xfId="5" xr:uid="{3FABEBDD-13D9-413D-B468-8477555506C7}"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Überschrift 5" xfId="6" xr:uid="{1EC5654B-79C1-46B3-BE39-3B560021440E}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="13" xr:uid="{FD27F874-29CD-44F1-9885-FC85F35E6F14}"/>
+    <cellStyle name="Warnender Text 2" xfId="15" xr:uid="{A7E494D2-EF1B-459D-B95B-02F4B29BAA67}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="14" xr:uid="{67C5166D-EC60-4FED-8543-C3202606A7DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -885,7 +883,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,16 +895,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>8801</v>
       </c>
       <c r="D2">
         <v>0.1196</v>
@@ -928,10 +926,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>83</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>7046</v>
       </c>
       <c r="D3">
         <v>0.113826</v>
@@ -942,10 +940,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5794</v>
       </c>
       <c r="D4">
         <v>0.10774400000000001</v>
@@ -956,10 +954,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4949</v>
       </c>
       <c r="D5">
         <v>0.101297</v>
@@ -970,10 +968,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3919</v>
       </c>
       <c r="D6">
         <v>9.4410999999999995E-2</v>
@@ -984,10 +982,10 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2783</v>
       </c>
       <c r="D7">
         <v>8.6981000000000003E-2</v>
@@ -998,10 +996,10 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1990</v>
       </c>
       <c r="D8">
         <v>7.8853999999999994E-2</v>
@@ -1012,10 +1010,10 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1322</v>
       </c>
       <c r="D9">
         <v>6.9787000000000002E-2</v>
@@ -1026,10 +1024,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>895</v>
       </c>
       <c r="D10">
         <v>5.9351000000000001E-2</v>
@@ -1040,10 +1038,10 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>491</v>
       </c>
       <c r="D11">
         <v>4.6635000000000003E-2</v>
@@ -1054,10 +1052,10 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>243</v>
       </c>
       <c r="D12">
         <v>2.8760000000000001E-2</v>
@@ -1068,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>8801.2800000000007</v>
       </c>
       <c r="D13">
         <v>0.119063</v>
@@ -1082,10 +1080,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>39</v>
+        <v>3484.85</v>
       </c>
       <c r="D14">
         <v>0.114188</v>
@@ -1096,10 +1094,10 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>1830.21</v>
       </c>
       <c r="D15">
         <v>0.102302</v>
@@ -1110,10 +1108,10 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>822.01499999999999</v>
       </c>
       <c r="D16">
         <v>9.1305999999999998E-2</v>
@@ -1124,10 +1122,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>4</v>
+        <v>353.94200000000001</v>
       </c>
       <c r="D17">
         <v>7.4000999999999997E-2</v>
@@ -1138,10 +1136,10 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>349.553</v>
       </c>
       <c r="D18">
         <v>6.0083999999999999E-2</v>
@@ -1152,10 +1150,10 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>331.96199999999999</v>
       </c>
       <c r="D19">
         <v>5.5649999999999998E-2</v>
@@ -1166,10 +1164,10 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>341.89</v>
       </c>
       <c r="D20">
         <v>5.3707999999999999E-2</v>
@@ -1180,10 +1178,10 @@
         <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>307.87200000000001</v>
       </c>
       <c r="D21">
         <v>4.6399000000000003E-2</v>
@@ -1194,10 +1192,10 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>342.42399999999998</v>
       </c>
       <c r="D22">
         <v>3.6764999999999999E-2</v>
@@ -1208,10 +1206,10 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>242.99199999999999</v>
       </c>
       <c r="D23">
         <v>2.8812999999999998E-2</v>
